--- a/data/HUNT_STATS_LIMPOPO_21.05.15.xlsx
+++ b/data/HUNT_STATS_LIMPOPO_21.05.15.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RossTyzackPitman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RossTyzackPitman/Documents/OneDrive/PhD/Data/R_Database/R_PROJECTS/PhD_Chapter3/MSE_Paper/LEOPARD-MP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1420" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HUNT_STATS_LIMPOPO_21.05.15" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -225,12 +228,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,12 +254,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,11 +544,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -560,7 +574,8 @@
     <col min="20" max="20" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -642,7 +657,7 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -670,7 +685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -740,7 +755,7 @@
       <c r="W2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -768,7 +783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -838,7 +853,7 @@
       <c r="W3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y3" s="1" t="s">
@@ -866,7 +881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>23</v>
       </c>
@@ -936,7 +951,7 @@
       <c r="W4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y4" s="1" t="s">
@@ -964,7 +979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>104</v>
       </c>
@@ -1034,7 +1049,7 @@
       <c r="W5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -1062,7 +1077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>127</v>
       </c>
@@ -1132,7 +1147,7 @@
       <c r="W6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y6" s="1" t="s">
@@ -1160,7 +1175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>89</v>
       </c>
@@ -1230,7 +1245,7 @@
       <c r="W7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y7" s="1" t="s">
@@ -1258,7 +1273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>143</v>
       </c>
@@ -1328,7 +1343,7 @@
       <c r="W8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y8" s="1" t="s">
@@ -1356,7 +1371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>112</v>
       </c>
@@ -1426,7 +1441,7 @@
       <c r="W9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y9" s="1" t="s">
@@ -1454,7 +1469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>123</v>
       </c>
@@ -1524,7 +1539,7 @@
       <c r="W10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y10" s="1" t="s">
@@ -1552,7 +1567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>136</v>
       </c>
@@ -1622,7 +1637,7 @@
       <c r="W11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y11" s="1" t="s">
@@ -1650,7 +1665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>99</v>
       </c>
@@ -1720,7 +1735,7 @@
       <c r="W12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y12" s="1" t="s">
@@ -1748,7 +1763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>151</v>
       </c>
@@ -1818,7 +1833,7 @@
       <c r="W13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y13" s="1" t="s">
@@ -1846,7 +1861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>152</v>
       </c>
@@ -1916,7 +1931,7 @@
       <c r="W14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y14" s="1" t="s">
@@ -1944,7 +1959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>22</v>
       </c>
@@ -2014,7 +2029,7 @@
       <c r="W15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="3">
         <v>6</v>
       </c>
       <c r="Y15" s="1" t="s">
@@ -2042,7 +2057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2112,7 +2127,7 @@
       <c r="W16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y16" s="1" t="s">
@@ -2140,7 +2155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -2210,7 +2225,7 @@
       <c r="W17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y17" s="1" t="s">
@@ -2238,7 +2253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>39</v>
       </c>
@@ -2308,7 +2323,7 @@
       <c r="W18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y18" s="1" t="s">
@@ -2336,7 +2351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2406,7 +2421,7 @@
       <c r="W19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="3">
         <v>9</v>
       </c>
       <c r="Y19" s="1" t="s">
@@ -2434,7 +2449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>24</v>
       </c>
@@ -2504,7 +2519,7 @@
       <c r="W20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="3">
         <v>4</v>
       </c>
       <c r="Y20" s="1" t="s">
@@ -2532,7 +2547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -2602,7 +2617,7 @@
       <c r="W21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="3">
         <v>2</v>
       </c>
       <c r="Y21" s="1" t="s">
@@ -2630,7 +2645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>27</v>
       </c>
@@ -2700,7 +2715,7 @@
       <c r="W22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="3">
         <v>14</v>
       </c>
       <c r="Y22" s="1" t="s">
@@ -2728,7 +2743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>41</v>
       </c>
@@ -2798,7 +2813,7 @@
       <c r="W23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y23" s="1" t="s">
@@ -2826,7 +2841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -2896,7 +2911,7 @@
       <c r="W24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="3">
         <v>11</v>
       </c>
       <c r="Y24" s="1" t="s">
@@ -2924,7 +2939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -2994,7 +3009,7 @@
       <c r="W25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y25" s="1" t="s">
@@ -3022,7 +3037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>10</v>
       </c>
@@ -3092,7 +3107,7 @@
       <c r="W26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="3">
         <v>6</v>
       </c>
       <c r="Y26" s="1" t="s">
@@ -3120,7 +3135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -3190,7 +3205,7 @@
       <c r="W27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X27" s="3">
         <v>5</v>
       </c>
       <c r="Y27" s="1" t="s">
@@ -3218,7 +3233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -3288,7 +3303,7 @@
       <c r="W28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X28" s="3">
         <v>7</v>
       </c>
       <c r="Y28" s="1" t="s">
@@ -3316,7 +3331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3386,7 +3401,7 @@
       <c r="W29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29" s="3">
         <v>6</v>
       </c>
       <c r="Y29" s="1" t="s">
@@ -3414,7 +3429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>14</v>
       </c>
@@ -3484,7 +3499,7 @@
       <c r="W30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X30" s="3">
         <v>1</v>
       </c>
       <c r="Y30" s="1" t="s">
@@ -3512,7 +3527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -3582,7 +3597,7 @@
       <c r="W31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X31" s="3">
         <v>7</v>
       </c>
       <c r="Y31" s="1" t="s">
@@ -3610,7 +3625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -3680,7 +3695,7 @@
       <c r="W32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32" s="3">
         <v>7</v>
       </c>
       <c r="Y32" s="1" t="s">
@@ -3708,7 +3723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3778,7 +3793,7 @@
       <c r="W33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X33" s="3">
         <v>6</v>
       </c>
       <c r="Y33" s="1" t="s">
@@ -3806,7 +3821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -3876,7 +3891,7 @@
       <c r="W34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X34" s="3">
         <v>7</v>
       </c>
       <c r="Y34" s="1" t="s">
@@ -3904,7 +3919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -3974,7 +3989,7 @@
       <c r="W35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X35" s="1">
+      <c r="X35" s="3">
         <v>14</v>
       </c>
       <c r="Y35" s="1" t="s">
@@ -4002,7 +4017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4072,7 +4087,7 @@
       <c r="W36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X36" s="3">
         <v>2</v>
       </c>
       <c r="Y36" s="1" t="s">
@@ -4100,7 +4115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -4170,7 +4185,7 @@
       <c r="W37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X37" s="1">
+      <c r="X37" s="3">
         <v>12</v>
       </c>
       <c r="Y37" s="1" t="s">
@@ -4198,7 +4213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -4268,7 +4283,7 @@
       <c r="W38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X38" s="3">
         <v>2</v>
       </c>
       <c r="Y38" s="1" t="s">
@@ -4296,7 +4311,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -4366,7 +4381,7 @@
       <c r="W39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="X39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y39" s="1" t="s">
@@ -4394,7 +4409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>88</v>
       </c>
@@ -4464,7 +4479,7 @@
       <c r="W40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X40" s="3">
         <v>14</v>
       </c>
       <c r="Y40" s="1" t="s">
@@ -4492,7 +4507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>90</v>
       </c>
@@ -4562,7 +4577,7 @@
       <c r="W41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41" s="3">
         <v>6</v>
       </c>
       <c r="Y41" s="1" t="s">
@@ -4590,7 +4605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>91</v>
       </c>
@@ -4660,7 +4675,7 @@
       <c r="W42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X42" s="3">
         <v>14</v>
       </c>
       <c r="Y42" s="1" t="s">
@@ -4688,7 +4703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>82</v>
       </c>
@@ -4758,7 +4773,7 @@
       <c r="W43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="X43" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y43" s="1" t="s">
@@ -4786,7 +4801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>92</v>
       </c>
@@ -4856,7 +4871,7 @@
       <c r="W44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X44" s="3">
         <v>9</v>
       </c>
       <c r="Y44" s="1" t="s">
@@ -4884,7 +4899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>19</v>
       </c>
@@ -4954,7 +4969,7 @@
       <c r="W45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X45" s="1">
+      <c r="X45" s="3">
         <v>11</v>
       </c>
       <c r="Y45" s="1" t="s">
@@ -4982,7 +4997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -5052,7 +5067,7 @@
       <c r="W46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="X46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y46" s="1" t="s">
@@ -5080,7 +5095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -5150,7 +5165,7 @@
       <c r="W47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X47" s="1">
+      <c r="X47" s="3">
         <v>6</v>
       </c>
       <c r="Y47" s="1" t="s">
@@ -5178,7 +5193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -5248,7 +5263,7 @@
       <c r="W48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X48" s="1">
+      <c r="X48" s="3">
         <v>7</v>
       </c>
       <c r="Y48" s="1" t="s">
@@ -5276,7 +5291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>7</v>
       </c>
@@ -5346,7 +5361,7 @@
       <c r="W49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X49" s="1">
+      <c r="X49" s="3">
         <v>14</v>
       </c>
       <c r="Y49" s="1" t="s">
@@ -5374,7 +5389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -5444,7 +5459,7 @@
       <c r="W50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X50" s="3">
         <v>4</v>
       </c>
       <c r="Y50" s="1" t="s">
@@ -5472,7 +5487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>18</v>
       </c>
@@ -5542,7 +5557,7 @@
       <c r="W51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X51" s="1">
+      <c r="X51" s="3">
         <v>14</v>
       </c>
       <c r="Y51" s="1" t="s">
@@ -5570,7 +5585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>11</v>
       </c>
@@ -5640,7 +5655,7 @@
       <c r="W52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X52" s="1">
+      <c r="X52" s="3">
         <v>5</v>
       </c>
       <c r="Y52" s="1" t="s">
@@ -5668,7 +5683,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>38</v>
       </c>
@@ -5738,7 +5753,7 @@
       <c r="W53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X53" s="1" t="s">
+      <c r="X53" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y53" s="1" t="s">
@@ -5766,7 +5781,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>113</v>
       </c>
@@ -5836,7 +5851,7 @@
       <c r="W54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X54" s="1">
+      <c r="X54" s="3">
         <v>8</v>
       </c>
       <c r="Y54" s="1" t="s">
@@ -5864,7 +5879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>128</v>
       </c>
@@ -5934,7 +5949,7 @@
       <c r="W55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X55" s="1">
+      <c r="X55" s="3">
         <v>21</v>
       </c>
       <c r="Y55" s="1" t="s">
@@ -5962,7 +5977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>94</v>
       </c>
@@ -6032,7 +6047,7 @@
       <c r="W56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X56" s="1">
+      <c r="X56" s="3">
         <v>8</v>
       </c>
       <c r="Y56" s="1" t="s">
@@ -6060,7 +6075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>109</v>
       </c>
@@ -6130,7 +6145,7 @@
       <c r="W57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X57" s="1">
+      <c r="X57" s="3">
         <v>5</v>
       </c>
       <c r="Y57" s="1" t="s">
@@ -6158,7 +6173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>84</v>
       </c>
@@ -6228,7 +6243,7 @@
       <c r="W58" s="1">
         <v>0</v>
       </c>
-      <c r="X58" s="1">
+      <c r="X58" s="3">
         <v>7</v>
       </c>
       <c r="Y58" s="1" t="s">
@@ -6256,7 +6271,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>102</v>
       </c>
@@ -6326,7 +6341,7 @@
       <c r="W59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X59" s="1">
+      <c r="X59" s="3">
         <v>5</v>
       </c>
       <c r="Y59" s="1" t="s">
@@ -6354,7 +6369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>78</v>
       </c>
@@ -6424,7 +6439,7 @@
       <c r="W60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X60" s="1">
+      <c r="X60" s="3">
         <v>13</v>
       </c>
       <c r="Y60" s="1" t="s">
@@ -6452,7 +6467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>87</v>
       </c>
@@ -6522,7 +6537,7 @@
       <c r="W61" s="1">
         <v>0</v>
       </c>
-      <c r="X61" s="1">
+      <c r="X61" s="3">
         <v>5</v>
       </c>
       <c r="Y61" s="1" t="s">
@@ -6550,7 +6565,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>79</v>
       </c>
@@ -6620,7 +6635,7 @@
       <c r="W62" s="1">
         <v>0</v>
       </c>
-      <c r="X62" s="1">
+      <c r="X62" s="3">
         <v>6</v>
       </c>
       <c r="Y62" s="1" t="s">
@@ -6648,7 +6663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>81</v>
       </c>
@@ -6718,7 +6733,7 @@
       <c r="W63" s="1">
         <v>0</v>
       </c>
-      <c r="X63" s="1">
+      <c r="X63" s="3">
         <v>3</v>
       </c>
       <c r="Y63" s="1" t="s">
@@ -6746,7 +6761,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>93</v>
       </c>
@@ -6816,7 +6831,7 @@
       <c r="W64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X64" s="1">
+      <c r="X64" s="3">
         <v>8</v>
       </c>
       <c r="Y64" s="1" t="s">
@@ -6844,7 +6859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>95</v>
       </c>
@@ -6914,7 +6929,7 @@
       <c r="W65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X65" s="1">
+      <c r="X65" s="3">
         <v>7</v>
       </c>
       <c r="Y65" s="1" t="s">
@@ -6942,7 +6957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>98</v>
       </c>
@@ -7012,7 +7027,7 @@
       <c r="W66" s="1">
         <v>8</v>
       </c>
-      <c r="X66" s="1">
+      <c r="X66" s="3">
         <v>16</v>
       </c>
       <c r="Y66" s="1" t="s">
@@ -7040,7 +7055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>103</v>
       </c>
@@ -7110,7 +7125,7 @@
       <c r="W67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X67" s="1">
+      <c r="X67" s="3">
         <v>3</v>
       </c>
       <c r="Y67" s="1" t="s">
@@ -7138,7 +7153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>105</v>
       </c>
@@ -7208,7 +7223,7 @@
       <c r="W68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X68" s="1">
+      <c r="X68" s="3">
         <v>1</v>
       </c>
       <c r="Y68" s="1" t="s">
@@ -7236,7 +7251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>83</v>
       </c>
@@ -7306,7 +7321,7 @@
       <c r="W69" s="1">
         <v>0</v>
       </c>
-      <c r="X69" s="1">
+      <c r="X69" s="3">
         <v>13</v>
       </c>
       <c r="Y69" s="1" t="s">
@@ -7334,7 +7349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>111</v>
       </c>
@@ -7404,7 +7419,7 @@
       <c r="W70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X70" s="1">
+      <c r="X70" s="3">
         <v>5</v>
       </c>
       <c r="Y70" s="1" t="s">
@@ -7432,7 +7447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>116</v>
       </c>
@@ -7502,7 +7517,7 @@
       <c r="W71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X71" s="1">
+      <c r="X71" s="3">
         <v>7</v>
       </c>
       <c r="Y71" s="1" t="s">
@@ -7530,7 +7545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>121</v>
       </c>
@@ -7600,7 +7615,7 @@
       <c r="W72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X72" s="1">
+      <c r="X72" s="3">
         <v>6</v>
       </c>
       <c r="Y72" s="1" t="s">
@@ -7628,7 +7643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>125</v>
       </c>
@@ -7698,7 +7713,7 @@
       <c r="W73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X73" s="1">
+      <c r="X73" s="3">
         <v>2</v>
       </c>
       <c r="Y73" s="1" t="s">
@@ -7726,7 +7741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>129</v>
       </c>
@@ -7796,7 +7811,7 @@
       <c r="W74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X74" s="1">
+      <c r="X74" s="3">
         <v>7</v>
       </c>
       <c r="Y74" s="1" t="s">
@@ -7824,7 +7839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>131</v>
       </c>
@@ -7894,7 +7909,7 @@
       <c r="W75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X75" s="1">
+      <c r="X75" s="3">
         <v>2</v>
       </c>
       <c r="Y75" s="1" t="s">
@@ -7922,7 +7937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>132</v>
       </c>
@@ -7992,7 +8007,7 @@
       <c r="W76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X76" s="1">
+      <c r="X76" s="3">
         <v>4</v>
       </c>
       <c r="Y76" s="1" t="s">
@@ -8020,7 +8035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>85</v>
       </c>
@@ -8090,7 +8105,7 @@
       <c r="W77" s="1">
         <v>0</v>
       </c>
-      <c r="X77" s="1">
+      <c r="X77" s="3">
         <v>8</v>
       </c>
       <c r="Y77" s="1" t="s">
@@ -8118,7 +8133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>138</v>
       </c>
@@ -8188,7 +8203,7 @@
       <c r="W78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X78" s="1">
+      <c r="X78" s="3">
         <v>4</v>
       </c>
       <c r="Y78" s="1" t="s">
@@ -8216,7 +8231,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>142</v>
       </c>
@@ -8286,7 +8301,7 @@
       <c r="W79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X79" s="1">
+      <c r="X79" s="3">
         <v>2</v>
       </c>
       <c r="Y79" s="1" t="s">
@@ -8314,7 +8329,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>86</v>
       </c>
@@ -8384,7 +8399,7 @@
       <c r="W80" s="1">
         <v>0</v>
       </c>
-      <c r="X80" s="1">
+      <c r="X80" s="3">
         <v>1</v>
       </c>
       <c r="Y80" s="1" t="s">
@@ -8412,7 +8427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>115</v>
       </c>
@@ -8482,7 +8497,7 @@
       <c r="W81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X81" s="1">
+      <c r="X81" s="3">
         <v>5</v>
       </c>
       <c r="Y81" s="1" t="s">
@@ -8510,7 +8525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>100</v>
       </c>
@@ -8580,7 +8595,7 @@
       <c r="W82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X82" s="1">
+      <c r="X82" s="3">
         <v>3</v>
       </c>
       <c r="Y82" s="1" t="s">
@@ -8608,7 +8623,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>108</v>
       </c>
@@ -8678,7 +8693,7 @@
       <c r="W83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X83" s="1">
+      <c r="X83" s="3">
         <v>18</v>
       </c>
       <c r="Y83" s="1" t="s">
@@ -8706,7 +8721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>118</v>
       </c>
@@ -8776,7 +8791,7 @@
       <c r="W84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X84" s="1">
+      <c r="X84" s="3">
         <v>13</v>
       </c>
       <c r="Y84" s="1" t="s">
@@ -8804,7 +8819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>122</v>
       </c>
@@ -8874,7 +8889,7 @@
       <c r="W85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X85" s="1">
+      <c r="X85" s="3">
         <v>6</v>
       </c>
       <c r="Y85" s="1" t="s">
@@ -8902,7 +8917,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>137</v>
       </c>
@@ -8972,7 +8987,7 @@
       <c r="W86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X86" s="1">
+      <c r="X86" s="3">
         <v>2</v>
       </c>
       <c r="Y86" s="1" t="s">
@@ -9000,7 +9015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>144</v>
       </c>
@@ -9070,7 +9085,7 @@
       <c r="W87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X87" s="1">
+      <c r="X87" s="3">
         <v>2</v>
       </c>
       <c r="Y87" s="1" t="s">
@@ -9098,7 +9113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>146</v>
       </c>
@@ -9168,7 +9183,7 @@
       <c r="W88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X88" s="1">
+      <c r="X88" s="3">
         <v>8</v>
       </c>
       <c r="Y88" s="1" t="s">
@@ -9196,7 +9211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>149</v>
       </c>
@@ -9266,7 +9281,7 @@
       <c r="W89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X89" s="1">
+      <c r="X89" s="3">
         <v>2</v>
       </c>
       <c r="Y89" s="1" t="s">
@@ -9294,7 +9309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>150</v>
       </c>
@@ -9364,7 +9379,7 @@
       <c r="W90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X90" s="1">
+      <c r="X90" s="3">
         <v>5</v>
       </c>
       <c r="Y90" s="1" t="s">
@@ -9392,7 +9407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>97</v>
       </c>
@@ -9462,7 +9477,7 @@
       <c r="W91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X91" s="1">
+      <c r="X91" s="3">
         <v>10</v>
       </c>
       <c r="Y91" s="1" t="s">
@@ -9490,7 +9505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>145</v>
       </c>
@@ -9560,7 +9575,7 @@
       <c r="W92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X92" s="1">
+      <c r="X92" s="3">
         <v>12</v>
       </c>
       <c r="Y92" s="1" t="s">
@@ -9588,7 +9603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>96</v>
       </c>
@@ -9658,7 +9673,7 @@
       <c r="W93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X93" s="1">
+      <c r="X93" s="3">
         <v>8</v>
       </c>
       <c r="Y93" s="1" t="s">
@@ -9686,7 +9701,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>101</v>
       </c>
@@ -9756,7 +9771,7 @@
       <c r="W94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X94" s="1">
+      <c r="X94" s="3">
         <v>4</v>
       </c>
       <c r="Y94" s="1" t="s">
@@ -9784,7 +9799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>106</v>
       </c>
@@ -9854,7 +9869,7 @@
       <c r="W95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X95" s="1">
+      <c r="X95" s="3">
         <v>6</v>
       </c>
       <c r="Y95" s="1" t="s">
@@ -9882,7 +9897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>107</v>
       </c>
@@ -9952,7 +9967,7 @@
       <c r="W96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X96" s="1">
+      <c r="X96" s="3">
         <v>10</v>
       </c>
       <c r="Y96" s="1" t="s">
@@ -9980,7 +9995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>110</v>
       </c>
@@ -10050,7 +10065,7 @@
       <c r="W97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X97" s="1">
+      <c r="X97" s="3">
         <v>8</v>
       </c>
       <c r="Y97" s="1" t="s">
@@ -10078,7 +10093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>114</v>
       </c>
@@ -10148,7 +10163,7 @@
       <c r="W98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X98" s="1">
+      <c r="X98" s="3">
         <v>3</v>
       </c>
       <c r="Y98" s="1" t="s">
@@ -10176,7 +10191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>117</v>
       </c>
@@ -10246,7 +10261,7 @@
       <c r="W99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X99" s="1">
+      <c r="X99" s="3">
         <v>4</v>
       </c>
       <c r="Y99" s="1" t="s">
@@ -10274,7 +10289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>119</v>
       </c>
@@ -10344,7 +10359,7 @@
       <c r="W100" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X100" s="1">
+      <c r="X100" s="3">
         <v>3</v>
       </c>
       <c r="Y100" s="1" t="s">
@@ -10372,7 +10387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>120</v>
       </c>
@@ -10442,7 +10457,7 @@
       <c r="W101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X101" s="1">
+      <c r="X101" s="3">
         <v>3</v>
       </c>
       <c r="Y101" s="1" t="s">
@@ -10470,7 +10485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>126</v>
       </c>
@@ -10540,7 +10555,7 @@
       <c r="W102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X102" s="1">
+      <c r="X102" s="3">
         <v>3</v>
       </c>
       <c r="Y102" s="1" t="s">
@@ -10568,7 +10583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>133</v>
       </c>
@@ -10638,7 +10653,7 @@
       <c r="W103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X103" s="1">
+      <c r="X103" s="3">
         <v>10</v>
       </c>
       <c r="Y103" s="1" t="s">
@@ -10666,7 +10681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>134</v>
       </c>
@@ -10736,7 +10751,7 @@
       <c r="W104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X104" s="1">
+      <c r="X104" s="3">
         <v>7</v>
       </c>
       <c r="Y104" s="1" t="s">
@@ -10764,7 +10779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>135</v>
       </c>
@@ -10834,7 +10849,7 @@
       <c r="W105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X105" s="1">
+      <c r="X105" s="3">
         <v>2</v>
       </c>
       <c r="Y105" s="1" t="s">
@@ -10862,7 +10877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>139</v>
       </c>
@@ -10932,7 +10947,7 @@
       <c r="W106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X106" s="1">
+      <c r="X106" s="3">
         <v>8</v>
       </c>
       <c r="Y106" s="1" t="s">
@@ -10960,7 +10975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>141</v>
       </c>
@@ -11030,7 +11045,7 @@
       <c r="W107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X107" s="1">
+      <c r="X107" s="3">
         <v>8</v>
       </c>
       <c r="Y107" s="1" t="s">
@@ -11058,7 +11073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>124</v>
       </c>
@@ -11128,7 +11143,7 @@
       <c r="W108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X108" s="1">
+      <c r="X108" s="3">
         <v>13</v>
       </c>
       <c r="Y108" s="1" t="s">
@@ -11156,7 +11171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>130</v>
       </c>
@@ -11226,7 +11241,7 @@
       <c r="W109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X109" s="1">
+      <c r="X109" s="3">
         <v>2</v>
       </c>
       <c r="Y109" s="1" t="s">
@@ -11254,7 +11269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>147</v>
       </c>
@@ -11324,7 +11339,7 @@
       <c r="W110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X110" s="1">
+      <c r="X110" s="3">
         <v>6</v>
       </c>
       <c r="Y110" s="1" t="s">
@@ -11352,7 +11367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>148</v>
       </c>
@@ -11422,7 +11437,7 @@
       <c r="W111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X111" s="1">
+      <c r="X111" s="3">
         <v>5</v>
       </c>
       <c r="Y111" s="1" t="s">
@@ -11450,7 +11465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>153</v>
       </c>
@@ -11520,7 +11535,7 @@
       <c r="W112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X112" s="1">
+      <c r="X112" s="3">
         <v>8</v>
       </c>
       <c r="Y112" s="1" t="s">
